--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_03_beg.xlsx
@@ -352,7 +352,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bodyguard A"]   Don't hurt Lady Ceylon. As for that "Doctor," do as you please.
+    <t xml:space="preserve">[name="Bodyguard A"]   Don't hurt Lady Ceylon. As for that 'Doctor,' do as you please.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_03_beg.xlsx
@@ -300,7 +300,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Let’s go!;Now’s not the time to talk!",values="1;2")]
+    <t xml:space="preserve">[Decision(options="Let's go!;Now's not the time to talk!",values="1;2")]
 </t>
   </si>
   <si>
@@ -332,7 +332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Ceylon, let’s get out of here first.",values="1")]
+    <t xml:space="preserve">[Decision(options="Ceylon, let's get out of here first.",values="1")]
 </t>
   </si>
   <si>
@@ -340,7 +340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="We finally… made it… to the beach…;I can’t… run any longer either…",values="1;2")]
+    <t xml:space="preserve">[Decision(options="We finally... made it... to the beach...;I can't... run any longer either...",values="1;2")]
 </t>
   </si>
   <si>
@@ -392,7 +392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ifrit"]   Fine…
+    <t xml:space="preserve">[name="Ifrit"]   Fine...
 </t>
   </si>
   <si>
